--- a/Software Deliveries Log/Project Plan.xlsx
+++ b/Software Deliveries Log/Project Plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC7E32E-7FCA-4E68-8087-A549A1241B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2ACEC-76AD-4024-AD7C-7A0118716978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Project Plan</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Currently working on modifications asked by Eng. Mohamed Ali</t>
+  </si>
+  <si>
+    <t>Complete RTM</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -184,6 +187,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A4:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A4:F8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A4:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A4:F9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Milestone" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Planned Start Date" dataDxfId="4"/>
@@ -788,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,7 +876,9 @@
       <c r="D5" s="4">
         <v>43866</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4">
+        <v>43866</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
@@ -888,7 +896,9 @@
       <c r="D6" s="4">
         <v>43866</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4">
+        <v>43866</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
@@ -913,19 +923,37 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C8" s="4">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="D8" s="4">
         <v>43867</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4">
+        <v>43866</v>
+      </c>
+      <c r="C9" s="4">
+        <v>43866</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43867</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Software Deliveries Log/Project Plan.xlsx
+++ b/Software Deliveries Log/Project Plan.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2ACEC-76AD-4024-AD7C-7A0118716978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Project Plan</t>
   </si>
@@ -110,9 +109,6 @@
     <t>Complete SRS</t>
   </si>
   <si>
-    <t>Complete project plan and SIQ based on data from CYRS</t>
-  </si>
-  <si>
     <t>Estimated Duration (Days)</t>
   </si>
   <si>
@@ -120,24 +116,27 @@
   </si>
   <si>
     <t>Complete RTM</t>
+  </si>
+  <si>
+    <t>Completed and reviewed by Eng. Mohamed Ali</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -182,14 +181,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -262,33 +261,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:G10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A4:G10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A4:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Member Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Task Type" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start Date" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Deadline" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Estimated Duration (Days)" dataDxfId="9">
+    <tableColumn id="1" name="Member Name" dataDxfId="14"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="13"/>
+    <tableColumn id="3" name="Task Type" dataDxfId="12"/>
+    <tableColumn id="4" name="Start Date" dataDxfId="11"/>
+    <tableColumn id="5" name="Deadline" dataDxfId="10"/>
+    <tableColumn id="6" name="Estimated Duration (Days)" dataDxfId="9">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Deadline]],-Table1[[#This Row],[Start Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Description &amp; Comments" dataDxfId="8"/>
+    <tableColumn id="7" name="Description &amp; Comments" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A4:F9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A4:F9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A4:F8"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Milestone" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Planned Start Date" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Actual Start Date" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Planned End Date" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Actual End Date" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Description &amp; Comments" dataDxfId="0"/>
+    <tableColumn id="1" name="Milestone" dataDxfId="5"/>
+    <tableColumn id="2" name="Planned Start Date" dataDxfId="4"/>
+    <tableColumn id="3" name="Actual Start Date" dataDxfId="3"/>
+    <tableColumn id="4" name="Planned End Date" dataDxfId="2"/>
+    <tableColumn id="5" name="Actual End Date" dataDxfId="1"/>
+    <tableColumn id="6" name="Description &amp; Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,35 +555,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" customWidth="1"/>
+    <col min="7" max="7" width="25.09765625" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -593,14 +592,14 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+    <row r="2" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -609,14 +608,14 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+    <row r="3" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -625,7 +624,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -642,13 +641,13 @@
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -793,54 +792,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.69921875" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="37.8984375" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -877,13 +876,13 @@
         <v>43866</v>
       </c>
       <c r="E5" s="4">
-        <v>43866</v>
+        <v>43871</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -900,10 +899,10 @@
         <v>43866</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -913,17 +912,15 @@
       <c r="C7" s="4">
         <v>43866</v>
       </c>
-      <c r="D7" s="4">
-        <v>43867</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B8" s="4">
         <v>43867</v>
@@ -931,31 +928,9 @@
       <c r="C8" s="4">
         <v>43867</v>
       </c>
-      <c r="D8" s="4">
-        <v>43867</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4">
-        <v>43866</v>
-      </c>
-      <c r="C9" s="4">
-        <v>43866</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43867</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Software Deliveries Log/Project Plan.xlsx
+++ b/Software Deliveries Log/Project Plan.xlsx
@@ -796,7 +796,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -896,10 +896,10 @@
         <v>43866</v>
       </c>
       <c r="E6" s="4">
-        <v>43866</v>
+        <v>43876</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">

--- a/Software Deliveries Log/Project Plan.xlsx
+++ b/Software Deliveries Log/Project Plan.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="42">
   <si>
     <t>Project Plan</t>
   </si>
@@ -49,30 +48,12 @@
     <t>Description &amp; Comments</t>
   </si>
   <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>Milestone</t>
-  </si>
-  <si>
-    <t>Planned Start Date</t>
-  </si>
-  <si>
     <t>Actual Start Date</t>
   </si>
   <si>
-    <t>Planned End Date</t>
-  </si>
-  <si>
     <t>Actual End Date</t>
   </si>
   <si>
-    <t>Mahmoud Hamdy Mohamed Hassan</t>
-  </si>
-  <si>
-    <t>Caroline</t>
-  </si>
-  <si>
     <t>Mahmoud Gamal</t>
   </si>
   <si>
@@ -85,40 +66,91 @@
     <t>Mark Joseph</t>
   </si>
   <si>
-    <t>Send SIQ an</t>
-  </si>
-  <si>
     <t>Non - Technical</t>
   </si>
   <si>
-    <t>Prepare HIS</t>
-  </si>
-  <si>
-    <t>Prepare SRS</t>
-  </si>
-  <si>
     <t>Prepare CYRS</t>
   </si>
   <si>
-    <t>Complete CYRS</t>
-  </si>
-  <si>
-    <t>Complete HIS</t>
-  </si>
-  <si>
-    <t>Complete SRS</t>
-  </si>
-  <si>
-    <t>Estimated Duration (Days)</t>
-  </si>
-  <si>
-    <t>Currently working on modifications asked by Eng. Mohamed Ali</t>
-  </si>
-  <si>
-    <t>Complete RTM</t>
-  </si>
-  <si>
-    <t>Completed and reviewed by Eng. Mohamed Ali</t>
+    <t xml:space="preserve">Send SIQ </t>
+  </si>
+  <si>
+    <t>Mahmoud Hamdy</t>
+  </si>
+  <si>
+    <t>Caroline Youssef</t>
+  </si>
+  <si>
+    <t>Prepare "HSI"</t>
+  </si>
+  <si>
+    <t>Review Points were opened by Eng. Mohamed Ali</t>
+  </si>
+  <si>
+    <t>SIQ was sent to Eng. Mohamed Ali and questions were answered</t>
+  </si>
+  <si>
+    <t>Address review points on "HSI"</t>
+  </si>
+  <si>
+    <t>Address review points on "CYRS"</t>
+  </si>
+  <si>
+    <t>Make Modifications to SIQ format as excel sheet</t>
+  </si>
+  <si>
+    <t>Task was delayed due to illness</t>
+  </si>
+  <si>
+    <t>Review Points were resolved and new points opened by Eng. Mohamed Ali</t>
+  </si>
+  <si>
+    <t>WEEK #1 (22/01/20 - 28/01/20)</t>
+  </si>
+  <si>
+    <t>WEEK #2 (29/01/20 - 04/02/20)</t>
+  </si>
+  <si>
+    <t>No Task Was Assigned due to illness</t>
+  </si>
+  <si>
+    <t>WEEK #3 (05/02/20 - 11/02/20)</t>
+  </si>
+  <si>
+    <t>All review points were resolved and document was released</t>
+  </si>
+  <si>
+    <t>Prepare "SRS"</t>
+  </si>
+  <si>
+    <t>Update project Plan &amp; Help in "HSI"</t>
+  </si>
+  <si>
+    <t>WEEK #4 (12/02/20 - 18/02/20)</t>
+  </si>
+  <si>
+    <t>Review points were opened</t>
+  </si>
+  <si>
+    <t>All Review points were resolved</t>
+  </si>
+  <si>
+    <t>Uploaded Project Plan and waiting for Eng. Mohamed Ali's feedback</t>
+  </si>
+  <si>
+    <t>Resolve points in "SRS"</t>
+  </si>
+  <si>
+    <t>WEEK #5 (19/02/20 - 27/02/20)</t>
+  </si>
+  <si>
+    <t>Prepare GDD</t>
+  </si>
+  <si>
+    <t>Reform Project Plan according to history</t>
+  </si>
+  <si>
+    <t>Internal Audit on changes made to documents</t>
   </si>
 </sst>
 </file>
@@ -141,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,14 +182,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -167,12 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,49 +237,175 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+  <dxfs count="50">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -261,33 +443,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:G10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A4:G10"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Member Name" dataDxfId="14"/>
-    <tableColumn id="2" name="Task Name" dataDxfId="13"/>
-    <tableColumn id="3" name="Task Type" dataDxfId="12"/>
-    <tableColumn id="4" name="Start Date" dataDxfId="11"/>
-    <tableColumn id="5" name="Deadline" dataDxfId="10"/>
-    <tableColumn id="6" name="Estimated Duration (Days)" dataDxfId="9">
-      <calculatedColumnFormula>SUM(Table1[[#This Row],[Deadline]],-Table1[[#This Row],[Start Date]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="Description &amp; Comments" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A5:H11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A5:H11"/>
+  <sortState ref="A6:G11">
+    <sortCondition ref="D5:D11"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Member Name" dataDxfId="47"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="46"/>
+    <tableColumn id="3" name="Task Type" dataDxfId="45"/>
+    <tableColumn id="4" name="Start Date" dataDxfId="44"/>
+    <tableColumn id="5" name="Deadline" dataDxfId="43"/>
+    <tableColumn id="10" name="Actual Start Date" dataDxfId="41"/>
+    <tableColumn id="11" name="Actual End Date" dataDxfId="40"/>
+    <tableColumn id="7" name="Description &amp; Comments" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A4:F8"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Milestone" dataDxfId="5"/>
-    <tableColumn id="2" name="Planned Start Date" dataDxfId="4"/>
-    <tableColumn id="3" name="Actual Start Date" dataDxfId="3"/>
-    <tableColumn id="4" name="Planned End Date" dataDxfId="2"/>
-    <tableColumn id="5" name="Actual End Date" dataDxfId="1"/>
-    <tableColumn id="6" name="Description &amp; Comments" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A13:H19" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A13:H19"/>
+  <sortState ref="A14:G19">
+    <sortCondition ref="D5:D11"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Member Name" dataDxfId="37"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="36"/>
+    <tableColumn id="3" name="Task Type" dataDxfId="35"/>
+    <tableColumn id="4" name="Start Date" dataDxfId="34"/>
+    <tableColumn id="5" name="Deadline" dataDxfId="33"/>
+    <tableColumn id="10" name="Actual Start Date" dataDxfId="32"/>
+    <tableColumn id="11" name="Actual End Date" dataDxfId="31"/>
+    <tableColumn id="7" name="Description &amp; Comments" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A21:H30" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A21:H30"/>
+  <sortState ref="A22:G27">
+    <sortCondition ref="D5:D11"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Member Name" dataDxfId="27"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="26"/>
+    <tableColumn id="3" name="Task Type" dataDxfId="25"/>
+    <tableColumn id="4" name="Start Date" dataDxfId="24"/>
+    <tableColumn id="5" name="Deadline" dataDxfId="23"/>
+    <tableColumn id="10" name="Actual Start Date" dataDxfId="22"/>
+    <tableColumn id="11" name="Actual End Date" dataDxfId="21"/>
+    <tableColumn id="7" name="Description &amp; Comments" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1456" displayName="Table1456" ref="A32:H36" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A32:H36"/>
+  <sortState ref="A30:G35">
+    <sortCondition ref="D5:D11"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Member Name" dataDxfId="17"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="16"/>
+    <tableColumn id="3" name="Task Type" dataDxfId="15"/>
+    <tableColumn id="4" name="Start Date" dataDxfId="14"/>
+    <tableColumn id="5" name="Deadline" dataDxfId="13"/>
+    <tableColumn id="10" name="Actual Start Date" dataDxfId="12"/>
+    <tableColumn id="11" name="Actual End Date" dataDxfId="11"/>
+    <tableColumn id="7" name="Description &amp; Comments" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1458" displayName="Table1458" ref="A38:H45" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A38:H45"/>
+  <sortState ref="A39:G44">
+    <sortCondition ref="D5:D11"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Member Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Task Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Task Type" dataDxfId="5"/>
+    <tableColumn id="4" name="Start Date" dataDxfId="4"/>
+    <tableColumn id="5" name="Deadline" dataDxfId="3"/>
+    <tableColumn id="10" name="Actual Start Date" dataDxfId="2"/>
+    <tableColumn id="11" name="Actual End Date" dataDxfId="1"/>
+    <tableColumn id="7" name="Description &amp; Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -556,35 +805,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" customWidth="1"/>
-    <col min="7" max="7" width="25.09765625" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="2" max="2" width="37.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="7" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="61.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -594,13 +842,13 @@
     </row>
     <row r="2" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -610,13 +858,13 @@
     </row>
     <row r="3" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -624,321 +872,991 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43852</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43858</v>
+      </c>
+      <c r="F6" s="3">
+        <v>43852</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43854</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43852</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43858</v>
+      </c>
+      <c r="F7" s="3">
+        <v>43852</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43854</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43852</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43858</v>
+      </c>
+      <c r="F8" s="3">
+        <v>43852</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43854</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43852</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43858</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43852</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43854</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43852</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43858</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43852</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43854</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43853</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43860</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43853</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43854</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43853</v>
-      </c>
-      <c r="E5" s="4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>43855</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43861</v>
+      </c>
+      <c r="F14" s="3">
+        <v>43857</v>
+      </c>
+      <c r="G14" s="3">
         <v>43860</v>
       </c>
-      <c r="F5" s="3">
-        <f>SUM(Table1[[#This Row],[Deadline]],-Table1[[#This Row],[Start Date]])</f>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3">
+        <v>43855</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43861</v>
+      </c>
+      <c r="F15" s="3">
+        <v>43857</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43860</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>43852</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43858</v>
+      </c>
+      <c r="F16" s="3">
+        <v>43858</v>
+      </c>
+      <c r="G16" s="3">
+        <v>43859</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>43852</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43858</v>
+      </c>
+      <c r="F17" s="3">
+        <v>43858</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43859</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>43852</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43858</v>
+      </c>
+      <c r="F18" s="3">
+        <v>43858</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43859</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <v>43855</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43857</v>
+      </c>
+      <c r="F19" s="3">
+        <v>43860</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43860</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43852</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43858</v>
-      </c>
-      <c r="F6" s="3">
-        <f>SUM(Table1[[#This Row],[Deadline]],-Table1[[#This Row],[Start Date]])</f>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
+        <v>43866</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43873</v>
+      </c>
+      <c r="F22" s="3">
+        <v>43866</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43871</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
+        <v>43866</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43867</v>
+      </c>
+      <c r="F23" s="3">
+        <v>43866</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43871</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
+        <v>43866</v>
+      </c>
+      <c r="E24" s="3">
+        <v>43873</v>
+      </c>
+      <c r="F24" s="3">
+        <v>43866</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43871</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43866</v>
+      </c>
+      <c r="E25" s="3">
+        <v>43873</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43866</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43871</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3">
+        <v>43866</v>
+      </c>
+      <c r="E26" s="3">
+        <v>43873</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43866</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43871</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
+        <v>43866</v>
+      </c>
+      <c r="E27" s="3">
+        <v>43873</v>
+      </c>
+      <c r="F27" s="3">
+        <v>43866</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43867</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
+        <v>43866</v>
+      </c>
+      <c r="E28" s="3">
+        <v>43873</v>
+      </c>
+      <c r="F28" s="3">
+        <v>43866</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43867</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
+        <v>43866</v>
+      </c>
+      <c r="E29" s="3">
+        <v>43873</v>
+      </c>
+      <c r="F29" s="3">
+        <v>43866</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43867</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43852</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43858</v>
-      </c>
-      <c r="F7" s="3">
-        <f>SUM(Table1[[#This Row],[Deadline]],-Table1[[#This Row],[Start Date]])</f>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3">
+        <v>43873</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43878</v>
+      </c>
+      <c r="F33" s="3">
+        <v>43873</v>
+      </c>
+      <c r="G33" s="3">
+        <v>43876</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
+        <v>43873</v>
+      </c>
+      <c r="E34" s="3">
+        <v>43878</v>
+      </c>
+      <c r="F34" s="3">
+        <v>43873</v>
+      </c>
+      <c r="G34" s="3">
+        <v>43876</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
+        <v>43873</v>
+      </c>
+      <c r="E35" s="3">
+        <v>43878</v>
+      </c>
+      <c r="F35" s="3">
+        <v>43873</v>
+      </c>
+      <c r="G35" s="3">
+        <v>43876</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43852</v>
-      </c>
-      <c r="E8" s="4">
-        <v>43858</v>
-      </c>
-      <c r="F8" s="3">
-        <f>SUM(Table1[[#This Row],[Deadline]],-Table1[[#This Row],[Start Date]])</f>
-        <v>6</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="12">
+        <v>43882</v>
+      </c>
+      <c r="E39" s="12">
+        <v>43883</v>
+      </c>
+      <c r="F39" s="12">
+        <v>43882</v>
+      </c>
+      <c r="G39" s="12">
+        <v>43883</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43852</v>
-      </c>
-      <c r="E9" s="4">
-        <v>43858</v>
-      </c>
-      <c r="F9" s="3">
-        <f>SUM(Table1[[#This Row],[Deadline]],-Table1[[#This Row],[Start Date]])</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4">
-        <v>43852</v>
-      </c>
-      <c r="E10" s="4">
-        <v>43858</v>
-      </c>
-      <c r="F10" s="3">
-        <f>SUM(Table1[[#This Row],[Deadline]],-Table1[[#This Row],[Start Date]])</f>
-        <v>6</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="B40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3">
+        <v>43882</v>
+      </c>
+      <c r="E40" s="3">
+        <v>43888</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
+        <v>43883</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43884</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3">
+        <v>43883</v>
+      </c>
+      <c r="E42" s="3">
+        <v>43884</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="3">
+        <v>43882</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43888</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3">
+        <v>43886</v>
+      </c>
+      <c r="E44" s="3">
+        <v>43888</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3">
+        <v>43886</v>
+      </c>
+      <c r="E45" s="12">
+        <v>43888</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G3"/>
+  <mergeCells count="6">
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="37.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4">
-        <v>43864</v>
-      </c>
-      <c r="C5" s="4">
-        <v>43866</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43866</v>
-      </c>
-      <c r="E5" s="4">
-        <v>43871</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43864</v>
-      </c>
-      <c r="C6" s="4">
-        <v>43866</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43866</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43876</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4">
-        <v>43866</v>
-      </c>
-      <c r="C7" s="4">
-        <v>43866</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4">
-        <v>43867</v>
-      </c>
-      <c r="C8" s="4">
-        <v>43867</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>